--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joas\Documents\GitHub\TuerSpion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15555" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raspberry" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Status</t>
   </si>
@@ -47,9 +52,6 @@
     <t>Relay von Björn, wenn Tür betätig, dann Bildspeichern</t>
   </si>
   <si>
-    <t>Verifizierung der eingetragene Benutzer. BUG: Registrierung ok, sofortige Anmeldung möglich ohne Bestätigung des Benutzers. Erweiterung der DB</t>
-  </si>
-  <si>
     <t>Erkannte Person vor  der Tür -&gt; Eintrag in der Datenbank???</t>
   </si>
   <si>
@@ -102,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve"> - - - - - - - - - </t>
+  </si>
+  <si>
+    <t>Überprüfung von ungültige SQL Kommandos als Benutzer/Passwort (SQL Injektion)</t>
+  </si>
+  <si>
+    <t>Verifizierung der eingetragene Benutzer. BUG: Registrierung ok, sofortige Anmeldung möglich ohne Bestätigung des Benutzers. Erweiterung der DB, Passwörter in DB verschlüsseln (MD5)</t>
   </si>
 </sst>
 </file>
@@ -263,13 +271,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -281,6 +289,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -609,42 +625,42 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,79 +671,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -743,45 +759,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,40 +808,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -841,18 +866,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
         <v>5</v>
@@ -860,10 +885,10 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -871,10 +896,10 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -882,22 +907,22 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="20">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -909,40 +934,49 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raspberry" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>Status</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Zugriff auf Socket ändern, nur DB, Stream läuft über Webseite</t>
   </si>
   <si>
-    <t>Bildgrüße festlegen/skalieren beim lesen eines Eintrages in der DB</t>
-  </si>
-  <si>
     <t>Bei keine Verbindung Fehler anzeigen</t>
   </si>
   <si>
@@ -102,6 +99,12 @@
   </si>
   <si>
     <t xml:space="preserve"> - - - - - - - - - </t>
+  </si>
+  <si>
+    <t>Passwort verschlüsseln!</t>
+  </si>
+  <si>
+    <t>Bildgröße festlegen/skalieren beim lesen eines Eintrages in der DB</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +220,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,7 +238,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,8 +254,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -261,8 +278,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="23">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -270,6 +288,10 @@
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -277,6 +299,10 @@
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -641,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20">
@@ -676,14 +702,14 @@
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -692,41 +718,53 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -746,7 +784,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -778,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
@@ -807,25 +845,25 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -843,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -882,7 +920,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -910,39 +948,39 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raspberry" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Status</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Verifizierung der eingetragene Benutzer. BUG: Registrierung ok, sofortige Anmeldung möglich ohne Bestätigung des Benutzers. Erweiterung der DB</t>
   </si>
   <si>
-    <t>Erkannte Person vor  der Tür -&gt; Eintrag in der Datenbank???</t>
-  </si>
-  <si>
     <t>Socket Zugriff</t>
   </si>
   <si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>Bildgröße festlegen/skalieren beim lesen eines Eintrages in der DB</t>
+  </si>
+  <si>
+    <t>mjpg streamer start up</t>
+  </si>
+  <si>
+    <t>Erkannte Person vor  der Tür ODER beim öffnen der Tür -&gt; Eintrag in der Datenbank???</t>
   </si>
 </sst>
 </file>
@@ -238,8 +241,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -280,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -292,6 +297,7 @@
     <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -303,6 +309,7 @@
     <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -632,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -649,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -658,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -667,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20">
@@ -684,7 +691,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -693,7 +700,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -702,16 +709,16 @@
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -720,10 +727,10 @@
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -732,40 +739,49 @@
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
-        <v>16</v>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -807,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -816,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
@@ -833,37 +849,37 @@
     <row r="7" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -898,7 +914,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -909,7 +925,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -920,7 +936,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -950,37 +966,37 @@
     <row r="7" spans="1:5">
       <c r="A7" s="8"/>
       <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8"/>
       <c r="B10" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>Status</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>Erkannte Person vor  der Tür ODER beim öffnen der Tür -&gt; Eintrag in der Datenbank???</t>
+  </si>
+  <si>
+    <t>ISSUES</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Stream server does not start on boot</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Camera cant be startet with ssh + script</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>foward display via ssh</t>
   </si>
 </sst>
 </file>
@@ -639,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -782,6 +803,35 @@
       </c>
       <c r="C16" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>Status</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>foward display via ssh</t>
+  </si>
+  <si>
+    <t>redirect port für socket im router</t>
   </si>
 </sst>
 </file>
@@ -262,8 +265,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -306,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -319,6 +326,8 @@
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -331,6 +340,8 @@
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,7 +674,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -797,7 +808,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
@@ -805,12 +816,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:3">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -818,7 +838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:3">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -826,7 +846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:3">
       <c r="B23" t="s">
         <v>34</v>
       </c>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Status</t>
   </si>
@@ -107,9 +107,6 @@
     <t>mjpg streamer start up</t>
   </si>
   <si>
-    <t>Erkannte Person vor  der Tür ODER beim öffnen der Tür -&gt; Eintrag in der Datenbank???</t>
-  </si>
-  <si>
     <t>ISSUES</t>
   </si>
   <si>
@@ -132,13 +129,25 @@
   </si>
   <si>
     <t>redirect port für socket im router</t>
+  </si>
+  <si>
+    <t>Probleme mit xstart(mit welchem user meldet sich der socket server? Ist xstart activ?)</t>
+  </si>
+  <si>
+    <t>Problem mit leistung und Blop, lieber verlinkungen.....</t>
+  </si>
+  <si>
+    <t>beim öffnen der Tür -&gt; Eintrag in der Datenbank</t>
+  </si>
+  <si>
+    <t>Ermitteln wer hat die Tür aufgemacht... Eintrag in datenbank nur name der Datei, mittels socket user_id, etc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +190,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -265,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,8 +311,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -312,8 +330,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -328,6 +347,7 @@
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -342,6 +362,7 @@
     <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -682,7 +703,7 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>5</v>
@@ -691,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>3</v>
@@ -700,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
@@ -709,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20">
+    <row r="6" spans="1:8" ht="20">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="13" t="s">
         <v>11</v>
@@ -729,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="13" t="s">
         <v>11</v>
@@ -737,17 +758,23 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
         <v>12</v>
@@ -756,7 +783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="14" t="s">
         <v>12</v>
@@ -768,7 +795,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="13" t="s">
         <v>11</v>
@@ -777,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="13" t="s">
         <v>11</v>
@@ -785,8 +812,11 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="13" t="s">
         <v>11</v>
@@ -795,7 +825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>24</v>
@@ -807,7 +837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="13" t="s">
         <v>11</v>
@@ -817,41 +847,41 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
         <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Status</t>
   </si>
@@ -134,13 +134,7 @@
     <t>Probleme mit xstart(mit welchem user meldet sich der socket server? Ist xstart activ?)</t>
   </si>
   <si>
-    <t>Problem mit leistung und Blop, lieber verlinkungen.....</t>
-  </si>
-  <si>
     <t>beim öffnen der Tür -&gt; Eintrag in der Datenbank</t>
-  </si>
-  <si>
-    <t>Ermitteln wer hat die Tür aufgemacht... Eintrag in datenbank nur name der Datei, mittels socket user_id, etc</t>
   </si>
 </sst>
 </file>
@@ -281,8 +275,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -332,7 +328,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -348,6 +344,7 @@
     <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -363,6 +360,7 @@
     <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,7 +693,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -758,21 +756,17 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raspberry" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>Status</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>beim öffnen der Tür -&gt; Eintrag in der Datenbank</t>
+  </si>
+  <si>
+    <t>Datenbank ändern</t>
+  </si>
+  <si>
+    <t>/doorlogger/.....jpg</t>
   </si>
 </sst>
 </file>
@@ -275,8 +281,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -328,7 +354,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="53">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -345,6 +371,16 @@
     <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -361,6 +397,16 @@
     <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -749,7 +795,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
@@ -790,7 +836,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
@@ -891,10 +937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -941,7 +987,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
@@ -950,7 +996,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -959,7 +1005,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
@@ -968,12 +1014,26 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -991,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1058,7 +1118,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
@@ -1067,7 +1127,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="12" t="s">
         <v>19</v>
       </c>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raspberry" sheetId="1" r:id="rId1"/>
@@ -281,8 +281,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -354,7 +356,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -381,6 +383,7 @@
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -407,6 +410,7 @@
     <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -805,7 +809,7 @@
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1051,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Status</t>
   </si>
@@ -107,27 +107,6 @@
     <t>mjpg streamer start up</t>
   </si>
   <si>
-    <t>ISSUES</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Stream server does not start on boot</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Camera cant be startet with ssh + script</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>foward display via ssh</t>
-  </si>
-  <si>
     <t>redirect port für socket im router</t>
   </si>
   <si>
@@ -141,6 +120,27 @@
   </si>
   <si>
     <t>/doorlogger/.....jpg</t>
+  </si>
+  <si>
+    <t>log datei an richtiger stelle</t>
+  </si>
+  <si>
+    <t>cout von server löschen</t>
+  </si>
+  <si>
+    <t>socket bearbeiten</t>
+  </si>
+  <si>
+    <t>stream und door</t>
+  </si>
+  <si>
+    <t>note:</t>
+  </si>
+  <si>
+    <t>for camera statx is necessary!</t>
+  </si>
+  <si>
+    <t>socket boots from start, maybe start manually</t>
   </si>
 </sst>
 </file>
@@ -281,8 +281,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -356,7 +370,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="69">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -384,6 +398,13 @@
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -411,6 +432,13 @@
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -740,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -814,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H9" s="15"/>
     </row>
@@ -857,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -896,36 +924,40 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
+      <c r="A22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +976,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1027,17 +1059,21 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1053,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1149,12 +1185,24 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
